--- a/biology/Botanique/Begonia_urophylla/Begonia_urophylla.xlsx
+++ b/biology/Botanique/Begonia_urophylla/Begonia_urophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia urophylla est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique centrale et du nord de l'Amérique du Sud. L'espèce fait partie de la section Gireoudia. Elle a été décrite en 1855 par William Jackson Hooker (1785-1865). L'épithète spécifique urophylla signifie « dont les feuilles ont une pointe semblable à une queue »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia urophylla est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique centrale et du nord de l'Amérique du Sud. L'espèce fait partie de la section Gireoudia. Elle a été décrite en 1855 par William Jackson Hooker (1785-1865). L'épithète spécifique urophylla signifie « dont les feuilles ont une pointe semblable à une queue ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble, in situ (Colombie)
@@ -544,9 +558,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Colombie ; Costa Rica ; Guatemala ; Panama ; Venezuela[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Colombie ; Costa Rica ; Guatemala ; Panama ; Venezuela.
 </t>
         </is>
       </c>
